--- a/Examples/BarometryTests/Plag2Pyx/FullResults_Final.xlsx
+++ b/Examples/BarometryTests/Plag2Pyx/FullResults_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\2022\GitHub\pyMELTScalc\Examples\BarometryTests\Plag2Pyx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88651DAA-EA88-4512-8874-A30931D37701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EB61AA-6AC1-44EA-99CC-401DA51D4358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,29 +769,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y31" workbookViewId="0">
-      <selection activeCell="AG41" sqref="AG41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="18" max="18" width="8.77734375" customWidth="1"/>
-    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5546875" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" customWidth="1"/>
+    <col min="23" max="23" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,62 +834,63 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -936,49 +937,53 @@
         <v>1.6</v>
       </c>
       <c r="P2">
+        <f>SUM(D2:N2)</f>
+        <v>99.93</v>
+      </c>
+      <c r="Q2">
         <v>1.131100737626056</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>-7.2760659943698087</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1403.15</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>200</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>25</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>5800</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>100</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>18</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3900</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1025,49 +1030,53 @@
         <v>5.9770286528550418</v>
       </c>
       <c r="P3">
+        <f t="shared" ref="P3:P41" si="0">SUM(D3:N3)</f>
+        <v>92.02000000000001</v>
+      </c>
+      <c r="Q3">
         <v>1.0794863483356161</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>-10.28112205460666</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1203.1500000000001</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2.08</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>3300</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>7</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>3700</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>900</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>24</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>500</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1114,37 +1123,41 @@
         <v>5.21</v>
       </c>
       <c r="P4">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="Q4">
         <v>3.7413533362133289</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-6.48</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2.0499999999999998</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>300</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>124.9999999999999</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>700</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>90.999999999999886</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1191,43 +1204,47 @@
         <v>5.19</v>
       </c>
       <c r="P5">
+        <f t="shared" si="0"/>
+        <v>99.99</v>
+      </c>
+      <c r="Q5">
         <v>3.7413533362133289</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-6.48</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2.0499999999999998</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>300</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>121.9999999999999</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>100</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>160.99999999999989</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>700</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>84.999999999999886</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1274,31 +1291,35 @@
         <v>5.19</v>
       </c>
       <c r="P6">
+        <f t="shared" si="0"/>
+        <v>99.980000000000018</v>
+      </c>
+      <c r="Q6">
         <v>3.7318010873564149</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-7.29</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2.0299999999999998</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>900</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1345,49 +1366,53 @@
         <v>5.25</v>
       </c>
       <c r="P7">
+        <f t="shared" si="0"/>
+        <v>100.28</v>
+      </c>
+      <c r="Q7">
         <v>3.7318010873564149</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-7.29</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>2.0299999999999998</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
         <v>100</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>190.99999999999989</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>100</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>156.99999999999989</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>100</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>177.99999999999989</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>700</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>111.9999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1434,49 +1459,53 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P8">
+        <f t="shared" si="0"/>
+        <v>100.03</v>
+      </c>
+      <c r="Q8">
         <v>-0.71859879832218709</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-10.199999999999999</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1323.15</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4.0019999999999998</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>7500</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>47</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>4900</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>5100</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>32</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>2100</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1523,49 +1552,53 @@
         <v>3.5</v>
       </c>
       <c r="P9">
+        <f t="shared" si="0"/>
+        <v>99.990000000000023</v>
+      </c>
+      <c r="Q9">
         <v>1.7294802768912381E-3</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-8.9</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1365.15</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>4.0149999999999997</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>2900</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>28</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>5000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>8</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>500</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>17</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2700</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1612,49 +1645,53 @@
         <v>1.6</v>
       </c>
       <c r="P10">
+        <f t="shared" si="0"/>
+        <v>100.03</v>
+      </c>
+      <c r="Q10">
         <v>-0.90385043587858505</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-9</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1428.15</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>4.1470000000000002</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>2700</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>11</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>3200</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2300</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>37</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2100</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1701,37 +1738,41 @@
         <v>3</v>
       </c>
       <c r="P11">
+        <f t="shared" si="0"/>
+        <v>99.76</v>
+      </c>
+      <c r="Q11">
         <v>3.8514855634248953E-2</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-11.495756610652469</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1193.1500000000001</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>7500</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>24</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>6500</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1778,37 +1819,41 @@
         <v>3</v>
       </c>
       <c r="P12">
+        <f t="shared" si="0"/>
+        <v>99.910000000000011</v>
+      </c>
+      <c r="Q12">
         <v>3.9171461449948097E-2</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-11.851308016877629</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1173.1500000000001</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>7500</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>32</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>7500</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1855,37 +1900,41 @@
         <v>4</v>
       </c>
       <c r="P13">
+        <f t="shared" si="0"/>
+        <v>98.939459999999997</v>
+      </c>
+      <c r="Q13">
         <v>4.0804669259999997</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-6.6371745359018854</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1248.1500000000001</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>4</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>300</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>99.999999999999886</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1100</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1932,49 +1981,53 @@
         <v>4</v>
       </c>
       <c r="P14">
+        <f t="shared" si="0"/>
+        <v>99.069339999999997</v>
+      </c>
+      <c r="Q14">
         <v>2.4323405</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-5.2427259908470436</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>4</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>5300</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>30</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>5600</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>20</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>800</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>46.999999999999893</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>7100</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2021,49 +2074,53 @@
         <v>0.7</v>
       </c>
       <c r="P15">
+        <f t="shared" si="0"/>
+        <v>100.00999999999998</v>
+      </c>
+      <c r="Q15">
         <v>0.42488367665536941</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1313.15</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.02</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
         <v>1500</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1500</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>900</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>8</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>400</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2110,49 +2167,53 @@
         <v>1.5</v>
       </c>
       <c r="P16">
+        <f t="shared" si="0"/>
+        <v>99.99</v>
+      </c>
+      <c r="Q16">
         <v>1.5248836766553691</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-8.1</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1313.15</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.02</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>3500</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>25</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>5750</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>18</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>100</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>34</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>4700</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2199,49 +2260,53 @@
         <v>1.9</v>
       </c>
       <c r="P17">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="Q17">
         <v>1.8248836766553691</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-7.8</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1313.15</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.02</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
         <v>2700</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>35</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>6500</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>10</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>100</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>26</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>4500</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2288,49 +2353,53 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="P18">
+        <f t="shared" si="0"/>
+        <v>100.01</v>
+      </c>
+      <c r="Q18">
         <v>2.0248836766553691</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-7.6</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1313.15</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.02</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>100</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>41</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>7500</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>8</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>100</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>31</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>5500</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2377,49 +2446,53 @@
         <v>1.59</v>
       </c>
       <c r="P19">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Q19">
         <v>1.6213533362133301</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-8.6</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>1.02</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>7300</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>43</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>4100</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>4900</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>40</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2200</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2466,49 +2539,53 @@
         <v>2.36</v>
       </c>
       <c r="P20">
+        <f t="shared" si="0"/>
+        <v>99.990000000000023</v>
+      </c>
+      <c r="Q20">
         <v>2.1213533362133301</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-8.1</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1.02</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>4700</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>5100</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>2</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>500</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>19.99999999999989</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>2900</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2555,49 +2632,53 @@
         <v>2.86</v>
       </c>
       <c r="P21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Q21">
         <v>2.4213533362133299</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-7.8</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1273.1500000000001</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1.02</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
         <v>4100</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>19</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>6700</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>4</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>700</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>27.99999999999989</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>3700</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>15.99999999999989</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2644,49 +2725,53 @@
         <v>2.9</v>
       </c>
       <c r="P22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="Q22">
         <v>2.413560870087728</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1248.1500000000001</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1.02</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>5900</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>3</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>5700</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>2000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>19</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>3100</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2733,37 +2818,41 @@
         <v>6.3</v>
       </c>
       <c r="P23">
+        <f t="shared" si="0"/>
+        <v>99.919412822801888</v>
+      </c>
+      <c r="Q23">
         <v>-0.55349908738815046</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-13.39</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1123.1500000000001</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2.004</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>5500</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>17</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>1700</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2810,43 +2899,47 @@
         <v>2.6</v>
       </c>
       <c r="P24">
+        <f t="shared" si="0"/>
+        <v>99.8170271186859</v>
+      </c>
+      <c r="Q24">
         <v>-0.83761912873142563</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-12.71</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1174.1500000000001</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>4.1349999999999998</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="X24">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>7500</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>25.99999999999989</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>900</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>190</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>7300</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2893,43 +2986,47 @@
         <v>5.4824200835257972</v>
       </c>
       <c r="P25">
+        <f t="shared" si="0"/>
+        <v>92.748757161200047</v>
+      </c>
+      <c r="Q25">
         <v>6.5903517046217885E-2</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-12.97</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1113.1500000000001</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.6000000238418579</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>6500</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>28</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>6100</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>27</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>3500</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2976,43 +3073,47 @@
         <v>5.4728256572538374</v>
       </c>
       <c r="P26">
+        <f t="shared" si="0"/>
+        <v>91.82299767434597</v>
+      </c>
+      <c r="Q26">
         <v>6.5903517046217885E-2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-12.97</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1113.1500000000001</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.6000000238418579</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="X26">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <v>6300</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>26</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>5700</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>28</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>4700</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3059,37 +3160,41 @@
         <v>4.8749636780088386</v>
       </c>
       <c r="P27">
+        <f t="shared" si="0"/>
+        <v>93.786307729780674</v>
+      </c>
+      <c r="Q27">
         <v>5.6500912611850751E-2</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-12.78</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1123.1500000000001</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.299999952316284</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="X27">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <v>6700</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>19</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>2900</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3136,43 +3241,47 @@
         <v>4.867215970823203</v>
       </c>
       <c r="P28">
+        <f t="shared" si="0"/>
+        <v>91.799667783081532</v>
+      </c>
+      <c r="Q28">
         <v>5.6500912611850751E-2</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-12.78</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1123.1500000000001</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.299999952316284</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="X28">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <v>6700</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>19</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>6700</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>32</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>4700</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3219,43 +3328,47 @@
         <v>5.2590498887704173</v>
       </c>
       <c r="P29">
+        <f t="shared" si="0"/>
+        <v>92.331810794770718</v>
+      </c>
+      <c r="Q29">
         <v>5.6500912611850751E-2</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-12.78</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1123.1500000000001</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.5</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
-      <c r="X29">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>6500</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>23</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>6500</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>34</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3600</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3302,43 +3415,47 @@
         <v>5.2541474022275407</v>
       </c>
       <c r="P30">
+        <f t="shared" si="0"/>
+        <v>90.387504518032074</v>
+      </c>
+      <c r="Q30">
         <v>5.6500912611850751E-2</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-12.78</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1123.1500000000001</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.5</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="X30">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <v>6300</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>21</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>5700</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>33</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>3500</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3385,43 +3502,47 @@
         <v>5.6703173461643148</v>
       </c>
       <c r="P31">
+        <f t="shared" si="0"/>
+        <v>92.533593155443668</v>
+      </c>
+      <c r="Q31">
         <v>6.6500912611850538E-2</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-12.77</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1123.1500000000001</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.700000047683716</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="X31">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
         <v>6100</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>30</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>5900</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>29</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>3500</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3468,43 +3589,47 @@
         <v>5.2509027814018339</v>
       </c>
       <c r="P32">
+        <f t="shared" si="0"/>
+        <v>92.246108122169971</v>
+      </c>
+      <c r="Q32">
         <v>6.3190785176153952E-2</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-12.29</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1148.1500000000001</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.5</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
       <c r="U32">
         <v>0</v>
       </c>
-      <c r="X32">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <v>6900</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>15</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>5700</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>41</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>1900</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3551,43 +3676,47 @@
         <v>5.234575348183248</v>
       </c>
       <c r="P33">
+        <f t="shared" si="0"/>
+        <v>90.365798324346542</v>
+      </c>
+      <c r="Q33">
         <v>6.3190785176153952E-2</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-12.29</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1148.1500000000001</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>1.5</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="X33">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
         <v>6700</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>12</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>4700</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>39</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>1900</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3634,40 +3763,44 @@
         <v>4.41</v>
       </c>
       <c r="P34">
+        <f t="shared" si="0"/>
+        <v>100.00999999999999</v>
+      </c>
+      <c r="Q34">
         <v>3</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>4</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
       <c r="U34">
         <v>0</v>
       </c>
-      <c r="X34">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
         <v>7500</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>48</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>7000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>20</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>6100</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3714,52 +3847,56 @@
         <v>5.46</v>
       </c>
       <c r="P35">
+        <f t="shared" si="0"/>
+        <v>99.99</v>
+      </c>
+      <c r="Q35">
         <v>3.2</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1223.1500000000001</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>4</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
         <v>0</v>
       </c>
-      <c r="X35">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <v>7300</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>42</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1900</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>49</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>1700</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>29</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>3000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>62</v>
       </c>
-      <c r="AF35" s="4" t="s">
+      <c r="AG35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3803,57 +3940,61 @@
         <v>0.86</v>
       </c>
       <c r="O36">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P36">
+        <f>SUM(D36:N36)</f>
+        <v>99.709380048844622</v>
+      </c>
+      <c r="Q36">
         <v>1.3</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>1248.1500000000001</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>5</v>
       </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
         <v>4500</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>26</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>1100</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>12</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>2300</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>97</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>500</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>3</v>
       </c>
-      <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="5" t="s">
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AH36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3900,61 +4041,65 @@
         <v>3.6</v>
       </c>
       <c r="P37">
+        <f t="shared" si="0"/>
+        <v>94.66</v>
+      </c>
+      <c r="Q37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>-9.5</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>1248.1500000000001</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>1.008</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
         <v>5700</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>8.9999999999998863</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>5700</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>8.9999999999998863</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>900</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>21</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>900</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>21</v>
       </c>
-      <c r="AD37" s="3">
+      <c r="AE37" s="3">
         <v>1050</v>
       </c>
-      <c r="AE37" s="3">
+      <c r="AF37" s="3">
         <v>20</v>
       </c>
-      <c r="AF37" s="5" t="s">
+      <c r="AG37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4001,55 +4146,59 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="R38">
+        <f t="shared" si="0"/>
+        <v>97.230000000000018</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>1358.15</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>1E-3</v>
       </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>100</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>21</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>100</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>21</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>100</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>21</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>100</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>21</v>
       </c>
-      <c r="AD38" s="3">
+      <c r="AE38" s="3">
         <v>100</v>
       </c>
-      <c r="AE38" s="3">
+      <c r="AF38" s="3">
         <v>21</v>
       </c>
-      <c r="AF38" s="5" t="s">
+      <c r="AG38" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4096,40 +4245,44 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="R39">
+        <f t="shared" si="0"/>
+        <v>94.733619999999988</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>1213.1500000000001</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>1</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
       <c r="U39">
         <v>0</v>
       </c>
-      <c r="Z39">
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
         <v>1300</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>26</v>
       </c>
-      <c r="AD39" s="3">
+      <c r="AE39" s="3">
         <v>1200</v>
       </c>
-      <c r="AE39" s="3">
+      <c r="AF39" s="3">
         <v>16</v>
       </c>
-      <c r="AF39" s="5" t="s">
+      <c r="AG39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AH39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4176,40 +4329,44 @@
         <v>5.3</v>
       </c>
       <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="R40">
+        <f t="shared" si="0"/>
+        <v>94.350000000000009</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>1183.1500000000001</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>1</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
       <c r="U40">
         <v>0</v>
       </c>
-      <c r="Z40">
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
         <v>1500</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>50</v>
       </c>
-      <c r="AD40" s="3">
+      <c r="AE40" s="3">
         <v>1250</v>
       </c>
-      <c r="AE40" s="3">
+      <c r="AF40" s="3">
         <v>38</v>
       </c>
-      <c r="AF40" s="5" t="s">
+      <c r="AG40" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AG40" t="s">
+      <c r="AH40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4256,36 +4413,40 @@
         <v>5.3</v>
       </c>
       <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="R41">
+        <f t="shared" si="0"/>
+        <v>94.509999999999991</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>1188.1500000000001</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>1.5</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
       <c r="U41">
         <v>0</v>
       </c>
-      <c r="Z41">
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
         <v>4700</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>52</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1650</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>121</v>
       </c>
-      <c r="AF41" s="5" t="s">
+      <c r="AG41" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AG41" t="s">
+      <c r="AH41" t="s">
         <v>92</v>
       </c>
     </row>
